--- a/Documentación/Controls ABP/Diagrama de Gantt_Control_1.xlsx
+++ b/Documentación/Controls ABP/Diagrama de Gantt_Control_1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palancana/GitHub/VGI2017/Documentación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jordi\Documents\UAB\VGI-ABP\VGI2017\Documentación\Controls ABP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <definedName name="PeriodInPlan">'Planificador de proyectos'!A$4=MEDIAN('Planificador de proyectos'!A$4,'Planificador de proyectos'!$C1,'Planificador de proyectos'!$C1+'Planificador de proyectos'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Planificador de proyectos'!$C1&gt;0)</definedName>
     <definedName name="PorcentajeCompletado">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
     <definedName name="Real">(PeriodInActual*('Planificador de proyectos'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,28 +670,28 @@
     <cellStyle name="% Completado" xfId="16"/>
     <cellStyle name="Actividad" xfId="2"/>
     <cellStyle name="Control del periodo resaltado" xfId="7"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3"/>
     <cellStyle name="Encabezados del proyecto" xfId="4"/>
     <cellStyle name="Etiqueta" xfId="5"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Leyenda de la duración real" xfId="15"/>
     <cellStyle name="Leyenda de la duración real (fuera del plan)" xfId="17"/>
     <cellStyle name="Leyenda del % completado (fuera del plan)" xfId="18"/>
     <cellStyle name="Leyenda del plan" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Porcentaje completado" xfId="6"/>
-    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -708,6 +708,15 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -823,148 +832,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1207,26 +1074,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BZ26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="8" max="16" width="2.77734375" style="1"/>
+    <col min="17" max="17" width="4" style="1" customWidth="1"/>
+    <col min="18" max="19" width="3.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="3.109375" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" customWidth="1"/>
+    <col min="31" max="31" width="4.77734375" customWidth="1"/>
+    <col min="32" max="32" width="3.6640625" customWidth="1"/>
+    <col min="33" max="33" width="3.5546875" customWidth="1"/>
+    <col min="34" max="34" width="4.21875" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="3.5546875" customWidth="1"/>
+    <col min="37" max="37" width="3.21875" customWidth="1"/>
+    <col min="38" max="38" width="3.5546875" customWidth="1"/>
+    <col min="39" max="39" width="3.44140625" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" customWidth="1"/>
+    <col min="41" max="41" width="3.21875" customWidth="1"/>
+    <col min="42" max="43" width="3.5546875" customWidth="1"/>
+    <col min="44" max="44" width="3.21875" customWidth="1"/>
+    <col min="45" max="45" width="3.5546875" customWidth="1"/>
+    <col min="46" max="46" width="3.88671875" customWidth="1"/>
+    <col min="47" max="47" width="3.6640625" customWidth="1"/>
+    <col min="48" max="48" width="3.44140625" customWidth="1"/>
+    <col min="49" max="49" width="3.21875" customWidth="1"/>
+    <col min="50" max="51" width="3.44140625" customWidth="1"/>
+    <col min="52" max="53" width="3.5546875" customWidth="1"/>
+    <col min="54" max="54" width="3.6640625" customWidth="1"/>
+    <col min="55" max="55" width="3.44140625" customWidth="1"/>
+    <col min="56" max="56" width="4.21875" customWidth="1"/>
+    <col min="57" max="57" width="4.44140625" customWidth="1"/>
+    <col min="58" max="59" width="4" customWidth="1"/>
+    <col min="60" max="60" width="3.88671875" customWidth="1"/>
+    <col min="61" max="61" width="3.6640625" customWidth="1"/>
+    <col min="62" max="63" width="3.5546875" customWidth="1"/>
+    <col min="64" max="64" width="3.44140625" customWidth="1"/>
+    <col min="65" max="65" width="4" customWidth="1"/>
+    <col min="66" max="66" width="3.44140625" customWidth="1"/>
+    <col min="67" max="67" width="3.5546875" customWidth="1"/>
+    <col min="68" max="68" width="3.44140625" customWidth="1"/>
+    <col min="69" max="69" width="3.5546875" customWidth="1"/>
+    <col min="70" max="70" width="3.6640625" customWidth="1"/>
+    <col min="71" max="71" width="3.5546875" customWidth="1"/>
+    <col min="72" max="72" width="3.21875" customWidth="1"/>
+    <col min="73" max="74" width="3.44140625" customWidth="1"/>
+    <col min="75" max="75" width="4.6640625" customWidth="1"/>
+    <col min="76" max="76" width="3.109375" customWidth="1"/>
+    <col min="77" max="77" width="4.44140625" customWidth="1"/>
+    <col min="78" max="78" width="3.5546875" customWidth="1"/>
+    <col min="79" max="79" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:78" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1159,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:78" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:78" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1221,7 @@
       <c r="AS2" s="23"/>
       <c r="AT2" s="23"/>
     </row>
-    <row r="3" spans="2:78" s="8" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:78" s="8" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1263,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1561,7 +1484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
@@ -1598,10 +1521,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="20">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1544,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
@@ -1638,10 +1561,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
@@ -1698,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="G11" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
@@ -1738,10 +1661,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
@@ -1758,10 +1681,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
@@ -1778,10 +1701,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
@@ -1798,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
@@ -1818,10 +1741,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
         <v>28</v>
       </c>
@@ -1838,10 +1761,10 @@
         <v>14</v>
       </c>
       <c r="G18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
@@ -1858,10 +1781,10 @@
         <v>14</v>
       </c>
       <c r="G19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
@@ -1901,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>36</v>
       </c>
@@ -2017,33 +1940,33 @@
     <mergeCell ref="W2:AA2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BZ26">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:BO27">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentación/Controls ABP/Diagrama de Gantt_Control_1.xlsx
+++ b/Documentación/Controls ABP/Diagrama de Gantt_Control_1.xlsx
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="B1:BZ26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="71" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="CF17" sqref="CF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1097,53 +1097,53 @@
     <col min="21" max="21" width="4.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.88671875" style="1" customWidth="1"/>
     <col min="23" max="23" width="3.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.109375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="3.88671875" style="1" customWidth="1"/>
     <col min="26" max="26" width="4.33203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="4.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4" customWidth="1"/>
-    <col min="29" max="29" width="3.109375" customWidth="1"/>
+    <col min="28" max="29" width="4" customWidth="1"/>
     <col min="30" max="30" width="4.44140625" customWidth="1"/>
     <col min="31" max="31" width="4.77734375" customWidth="1"/>
     <col min="32" max="32" width="3.6640625" customWidth="1"/>
-    <col min="33" max="33" width="3.5546875" customWidth="1"/>
+    <col min="33" max="33" width="5.21875" customWidth="1"/>
     <col min="34" max="34" width="4.21875" customWidth="1"/>
     <col min="35" max="35" width="4" customWidth="1"/>
-    <col min="36" max="36" width="3.5546875" customWidth="1"/>
-    <col min="37" max="37" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="5" customWidth="1"/>
+    <col min="37" max="37" width="4.33203125" customWidth="1"/>
     <col min="38" max="38" width="3.5546875" customWidth="1"/>
-    <col min="39" max="39" width="3.44140625" customWidth="1"/>
+    <col min="39" max="39" width="4.33203125" customWidth="1"/>
     <col min="40" max="40" width="3.6640625" customWidth="1"/>
-    <col min="41" max="41" width="3.21875" customWidth="1"/>
-    <col min="42" max="43" width="3.5546875" customWidth="1"/>
-    <col min="44" max="44" width="3.21875" customWidth="1"/>
-    <col min="45" max="45" width="3.5546875" customWidth="1"/>
+    <col min="41" max="41" width="4.109375" customWidth="1"/>
+    <col min="42" max="42" width="5.44140625" customWidth="1"/>
+    <col min="43" max="43" width="4.88671875" customWidth="1"/>
+    <col min="44" max="44" width="3.77734375" customWidth="1"/>
+    <col min="45" max="45" width="4.109375" customWidth="1"/>
     <col min="46" max="46" width="3.88671875" customWidth="1"/>
     <col min="47" max="47" width="3.6640625" customWidth="1"/>
     <col min="48" max="48" width="3.44140625" customWidth="1"/>
-    <col min="49" max="49" width="3.21875" customWidth="1"/>
-    <col min="50" max="51" width="3.44140625" customWidth="1"/>
-    <col min="52" max="53" width="3.5546875" customWidth="1"/>
+    <col min="49" max="49" width="4.88671875" customWidth="1"/>
+    <col min="50" max="50" width="5.109375" customWidth="1"/>
+    <col min="51" max="51" width="4.21875" customWidth="1"/>
+    <col min="52" max="52" width="4.6640625" customWidth="1"/>
+    <col min="53" max="53" width="4.44140625" customWidth="1"/>
     <col min="54" max="54" width="3.6640625" customWidth="1"/>
-    <col min="55" max="55" width="3.44140625" customWidth="1"/>
-    <col min="56" max="56" width="4.21875" customWidth="1"/>
+    <col min="55" max="56" width="4.21875" customWidth="1"/>
     <col min="57" max="57" width="4.44140625" customWidth="1"/>
     <col min="58" max="59" width="4" customWidth="1"/>
     <col min="60" max="60" width="3.88671875" customWidth="1"/>
     <col min="61" max="61" width="3.6640625" customWidth="1"/>
-    <col min="62" max="63" width="3.5546875" customWidth="1"/>
-    <col min="64" max="64" width="3.44140625" customWidth="1"/>
+    <col min="62" max="62" width="4.88671875" customWidth="1"/>
+    <col min="63" max="63" width="4.6640625" customWidth="1"/>
+    <col min="64" max="64" width="4.77734375" customWidth="1"/>
     <col min="65" max="65" width="4" customWidth="1"/>
-    <col min="66" max="66" width="3.44140625" customWidth="1"/>
-    <col min="67" max="67" width="3.5546875" customWidth="1"/>
+    <col min="66" max="66" width="4.5546875" customWidth="1"/>
+    <col min="67" max="67" width="4.44140625" customWidth="1"/>
     <col min="68" max="68" width="3.44140625" customWidth="1"/>
-    <col min="69" max="69" width="3.5546875" customWidth="1"/>
+    <col min="69" max="69" width="4.6640625" customWidth="1"/>
     <col min="70" max="70" width="3.6640625" customWidth="1"/>
-    <col min="71" max="71" width="3.5546875" customWidth="1"/>
-    <col min="72" max="72" width="3.21875" customWidth="1"/>
-    <col min="73" max="74" width="3.44140625" customWidth="1"/>
+    <col min="71" max="71" width="5.21875" customWidth="1"/>
+    <col min="72" max="74" width="4.33203125" customWidth="1"/>
     <col min="75" max="75" width="4.6640625" customWidth="1"/>
-    <col min="76" max="76" width="3.109375" customWidth="1"/>
+    <col min="76" max="76" width="3.88671875" customWidth="1"/>
     <col min="77" max="77" width="4.44140625" customWidth="1"/>
     <col min="78" max="78" width="3.5546875" customWidth="1"/>
     <col min="79" max="79" width="3.88671875" customWidth="1"/>
